--- a/src/unittest/excel_file/arrayParsing_test.xlsx
+++ b/src/unittest/excel_file/arrayParsing_test.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14680" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14720" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="100">
   <si>
     <t>Vlans ID</t>
   </si>
@@ -231,6 +232,96 @@
   <si>
     <t>{{Subnet_arp}}
 {{Wildcard_arp}}</t>
+  </si>
+  <si>
+    <t>DATA-VLAN-01</t>
+  </si>
+  <si>
+    <t>DATA-VLAN-02</t>
+  </si>
+  <si>
+    <t>DATA-VLAN-03</t>
+  </si>
+  <si>
+    <t>DATA-VLAN-04</t>
+  </si>
+  <si>
+    <t>DATA-VLAN-05</t>
+  </si>
+  <si>
+    <t>VOICE-VLAN-01</t>
+  </si>
+  <si>
+    <t>VOICE-VLAN-02</t>
+  </si>
+  <si>
+    <t>VOICE-VLAN-03</t>
+  </si>
+  <si>
+    <t>VOICE-VLAN-04</t>
+  </si>
+  <si>
+    <t>VOICE-VLAN-05</t>
+  </si>
+  <si>
+    <t>10.1.4.0</t>
+  </si>
+  <si>
+    <t>10.1.5.0</t>
+  </si>
+  <si>
+    <t>10.2.4.0</t>
+  </si>
+  <si>
+    <t>10.2.5.0</t>
+  </si>
+  <si>
+    <t>10.3.4.0</t>
+  </si>
+  <si>
+    <t>10.3.5.0</t>
+  </si>
+  <si>
+    <t>WIFI-VLAN-01</t>
+  </si>
+  <si>
+    <t>WIFI-VLAN-02</t>
+  </si>
+  <si>
+    <t>WIFI-VLAN-03</t>
+  </si>
+  <si>
+    <t>WIFI-VLAN-04</t>
+  </si>
+  <si>
+    <t>WIFI-VLAN-05</t>
+  </si>
+  <si>
+    <t>10.1.4.254</t>
+  </si>
+  <si>
+    <t>10.1.5.254</t>
+  </si>
+  <si>
+    <t>10.2.4.254</t>
+  </si>
+  <si>
+    <t>10.2.5.254</t>
+  </si>
+  <si>
+    <t>10.3.4.254</t>
+  </si>
+  <si>
+    <t>10.3.5.254</t>
+  </si>
+  <si>
+    <t>DATA VLAN for the first floor</t>
+  </si>
+  <si>
+    <t>WIFI VLAN for the first floor</t>
+  </si>
+  <si>
+    <t>VOICE VLAN for the first floor</t>
   </si>
 </sst>
 </file>
@@ -284,7 +375,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,8 +388,20 @@
         <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -333,8 +436,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF4F81BD"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF4F81BD"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -362,8 +549,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -385,6 +586,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -409,7 +637,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -423,6 +651,13 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -436,6 +671,13 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
@@ -1108,14 +1350,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:I21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1154,7 +1397,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28">
+    <row r="2" spans="1:11" ht="14" customHeight="1">
       <c r="A2" s="3">
         <v>21</v>
       </c>
@@ -1187,7 +1430,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="28">
+    <row r="3" spans="1:11" ht="14" customHeight="1">
       <c r="A3" s="4">
         <v>22</v>
       </c>
@@ -1216,7 +1459,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28">
+    <row r="4" spans="1:11" ht="14" customHeight="1">
       <c r="A4" s="4">
         <v>23</v>
       </c>
@@ -1245,7 +1488,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" ht="14" customHeight="1">
       <c r="A5" s="4">
         <v>41</v>
       </c>
@@ -1268,7 +1511,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" ht="14" customHeight="1">
       <c r="A6" s="4">
         <v>42</v>
       </c>
@@ -1293,7 +1536,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" ht="14" customHeight="1">
       <c r="A7" s="4">
         <v>43</v>
       </c>
@@ -1316,7 +1559,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28">
+    <row r="8" spans="1:11" ht="14" customHeight="1">
       <c r="A8" s="3">
         <v>101</v>
       </c>
@@ -1349,7 +1592,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28">
+    <row r="9" spans="1:11" ht="14" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
@@ -1382,7 +1625,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28">
+    <row r="10" spans="1:11" ht="14" customHeight="1">
       <c r="A10" s="3">
         <v>103</v>
       </c>
@@ -1415,7 +1658,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28">
+    <row r="11" spans="1:11" ht="14" customHeight="1">
       <c r="A11" s="3">
         <v>104</v>
       </c>
@@ -1448,7 +1691,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="28">
+    <row r="12" spans="1:11" ht="14" customHeight="1">
       <c r="A12" s="3">
         <v>105</v>
       </c>
@@ -1481,7 +1724,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="28">
+    <row r="13" spans="1:11" ht="14" customHeight="1">
       <c r="A13" s="3">
         <v>106</v>
       </c>
@@ -1514,7 +1757,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="28">
+    <row r="14" spans="1:11" ht="14" customHeight="1">
       <c r="A14" s="3">
         <v>107</v>
       </c>
@@ -1547,7 +1790,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="28">
+    <row r="15" spans="1:11" ht="14" customHeight="1">
       <c r="A15" s="3">
         <v>108</v>
       </c>
@@ -1580,7 +1823,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28">
+    <row r="16" spans="1:11" ht="14" customHeight="1">
       <c r="A16" s="3">
         <v>109</v>
       </c>
@@ -1624,80 +1867,80 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" ht="116" customHeight="1">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9" ht="135" customHeight="1">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
     </row>
     <row r="23" spans="1:9" ht="183" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5"/>
@@ -1768,4 +2011,328 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17" thickTop="1" thickBot="1">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" thickTop="1">
+      <c r="A2" s="10">
+        <v>10</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="12">
+        <v>11</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="15">
+        <v>12</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="12">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="15">
+        <v>14</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="12">
+        <v>15</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="15">
+        <v>16</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="12">
+        <v>17</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="15">
+        <v>18</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="12">
+        <v>19</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="15">
+        <v>20</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="12">
+        <v>21</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="15">
+        <v>22</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="12">
+        <v>23</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" ht="16" thickBot="1">
+      <c r="A16" s="16">
+        <v>24</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" ht="16" thickTop="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/src/unittest/excel_file/arrayParsing_test.xlsx
+++ b/src/unittest/excel_file/arrayParsing_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14720" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="98">
   <si>
     <t>Vlans ID</t>
   </si>
@@ -215,12 +215,6 @@
   </si>
   <si>
     <t>Template Inspection</t>
-  </si>
-  <si>
-    <t>Oui</t>
-  </si>
-  <si>
-    <t>Non</t>
   </si>
   <si>
     <t>10.1.0.224</t>
@@ -1350,14 +1344,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="19.5" customWidth="1"/>
   </cols>
@@ -1415,19 +1409,19 @@
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14" customHeight="1">
@@ -1450,13 +1444,13 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14" customHeight="1">
@@ -1479,13 +1473,13 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="14" customHeight="1">
@@ -1502,13 +1496,13 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14" customHeight="1">
@@ -1527,13 +1521,13 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14" customHeight="1">
@@ -1550,13 +1544,13 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14" customHeight="1">
@@ -1583,13 +1577,13 @@
         <v>26</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14" customHeight="1">
@@ -1616,13 +1610,13 @@
         <v>26</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14" customHeight="1">
@@ -1649,13 +1643,13 @@
         <v>26</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="14" customHeight="1">
@@ -1682,13 +1676,13 @@
         <v>26</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14" customHeight="1">
@@ -1715,13 +1709,13 @@
         <v>26</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14" customHeight="1">
@@ -1748,13 +1742,13 @@
         <v>26</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="14" customHeight="1">
@@ -1781,13 +1775,13 @@
         <v>26</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="14" customHeight="1">
@@ -1814,13 +1808,13 @@
         <v>26</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14" customHeight="1">
@@ -1847,13 +1841,13 @@
         <v>26</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1881,7 +1875,7 @@
     </row>
     <row r="19" spans="1:9" ht="116" customHeight="1">
       <c r="A19" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -1907,7 +1901,7 @@
     </row>
     <row r="21" spans="1:9" ht="135" customHeight="1">
       <c r="A21" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -2017,7 +2011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -2054,7 +2048,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>22</v>
@@ -2066,7 +2060,7 @@
         <v>24</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2074,7 +2068,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>29</v>
@@ -2092,7 +2086,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>33</v>
@@ -2110,16 +2104,16 @@
         <v>13</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F5" s="9"/>
     </row>
@@ -2128,16 +2122,16 @@
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F6" s="11"/>
     </row>
@@ -2146,7 +2140,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>36</v>
@@ -2158,7 +2152,7 @@
         <v>37</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2166,7 +2160,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>40</v>
@@ -2184,7 +2178,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>44</v>
@@ -2202,16 +2196,16 @@
         <v>18</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F10" s="11"/>
     </row>
@@ -2220,16 +2214,16 @@
         <v>19</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F11" s="9"/>
     </row>
@@ -2238,7 +2232,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>48</v>
@@ -2250,7 +2244,7 @@
         <v>49</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2258,7 +2252,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>52</v>
@@ -2276,7 +2270,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>56</v>
@@ -2294,16 +2288,16 @@
         <v>23</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F15" s="9"/>
     </row>
@@ -2312,16 +2306,16 @@
         <v>24</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F16" s="17"/>
     </row>
